--- a/experiment result/128_0.8_40_zs0_kappa_lp.xlsx
+++ b/experiment result/128_0.8_40_zs0_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01947303762975228</v>
+        <v>0.004218572907845453</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02036172126860256</v>
+        <v>0.004042383238489905</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0199896896144032</v>
+        <v>0.004780372265347099</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02623898477367857</v>
+        <v>0.00664789341985058</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03768028469921748</v>
+        <v>0.004379282989456063</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02746770146896525</v>
+        <v>0.004670649811405256</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02939169093339902</v>
+        <v>0.006693809236221494</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02908394069283098</v>
+        <v>0.006071358017177326</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03870917323452314</v>
+        <v>0.01085492641500441</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05164928429260342</v>
+        <v>0.02511472543800792</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02268634766607567</v>
+        <v>0.003120943697306872</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03158550785920795</v>
+        <v>0.006747505726394552</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02117852762997881</v>
+        <v>0.003135473471369947</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02701020758447712</v>
+        <v>0.003969497275850031</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03802787821279333</v>
+        <v>0.009343585782078541</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0348849001573329</v>
+        <v>0.01108675849724212</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02856371798526561</v>
+        <v>0.007749221363962974</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0126837682130466</v>
+        <v>0.001872735962695159</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03873216143431553</v>
+        <v>0.009209818036721353</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02187578361174986</v>
+        <v>0.003053643922296422</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01100485771854647</v>
+        <v>0.002684782784042932</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01866976374704505</v>
+        <v>0.003394817845042595</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.02565907953703769</v>
+        <v>0.004934295450848497</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01116627041147153</v>
+        <v>0.001832212183870349</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01051467104125476</v>
+        <v>0.002623353771906968</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.03068479299299932</v>
+        <v>0.005022804737106405</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02731470475851541</v>
+        <v>0.001736631168781513</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03511439372434914</v>
+        <v>0.01058210749080319</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01782239276406993</v>
+        <v>0.008468812575306937</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01669428963036573</v>
+        <v>0.003315701591725232</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01089496530784192</v>
+        <v>0.001991753888164883</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02486065141564828</v>
+        <v>0.006051532985803582</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.04168006323737874</v>
+        <v>0.008797873997616803</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02402659424967783</v>
+        <v>0.005361740514596374</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.04383103177078061</v>
+        <v>0.007156700334990605</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.03708447685361056</v>
+        <v>0.007340456912299792</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01500778876016918</v>
+        <v>0.001799383263489671</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02723730996795449</v>
+        <v>0.004941159528500045</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02850863414094164</v>
+        <v>0.007254745728308652</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.04619649935824888</v>
+        <v>0.0118229384037725</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.02553173118079454</v>
+        <v>0.009188096402434117</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02775053133684455</v>
+        <v>0.004478296027733848</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02053461810798769</v>
+        <v>0.006286900512283736</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.03814001331316956</v>
+        <v>0.006559388006997105</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0421175809586558</v>
+        <v>0.01328259634033797</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.04451989941062311</v>
+        <v>0.006600627136916439</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02531541873450631</v>
+        <v>0.008873778189192858</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01325488595209154</v>
+        <v>0.004449466688656495</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.03796437983281586</v>
+        <v>0.003786084597934174</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01531073514592537</v>
+        <v>0.008813476225183477</v>
       </c>
     </row>
   </sheetData>
